--- a/analytical_report.xlsx
+++ b/analytical_report.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Месяц</t>
   </si>
   <si>
     <t>Метрика</t>
+  </si>
+  <si>
+    <t>Годовой</t>
   </si>
   <si>
     <t>Коэффициент 1</t>
@@ -424,6 +427,10 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="52" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
@@ -477,102 +484,102 @@
         <v>45261</v>
       </c>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2">
-        <v>45291</v>
-      </c>
-      <c r="AA1" s="2"/>
+      <c r="Z1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="U2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2.403191489361702</v>
@@ -655,7 +662,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1.701698006515607</v>
@@ -738,7 +745,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -821,7 +828,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.9615688787493059</v>
@@ -904,7 +911,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -987,7 +994,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1070,7 +1077,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.6099118582462517</v>
